--- a/biology/Botanique/Bosquet_du_Dauphin/Bosquet_du_Dauphin.xlsx
+++ b/biology/Botanique/Bosquet_du_Dauphin/Bosquet_du_Dauphin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bosquet du Dauphin est un bosquet des jardins de Versailles.
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bosquet du Dauphin forme le pendant du bosquet de la Girandole.
 Il est délimité à l'Est par l'allée de l'Été, au Sud par le tapis vert dans la grande perspective qui descend du château vers le Grand Canal, au Nord par l'allée de Cérès-et-de-Flore, et à l'Ouest par l'allée du Printemps.Il est donc situé entre le parterre de Latone et le bosquet des Bains-d'Apollon à l'Est, le bosquet des Dômes à l'Ouest, le bosquet de l'Étoile.Aux angles Nord-Est et Nord-Ouest se trouvent respectivement le bassin de Cérès et le bassin de Flore.
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,7 +586,9 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les salles de verdure sont agrémentées des termes de marbre blanc sculptés pour le château de Vaux-le-Vicomte d'après Nicolas Poussin et rachetés par Louis XIV aux héritiers de Nicolas Fouquet.
 On trouve ainsi représentés dans quatre salles de verdures : 
@@ -609,7 +627,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bosquet du Dauphin est l'un des deux premiers bosquets créés à Versailles par André Le Nôtre entre 1661 et 1663. 
 </t>
